--- a/results/primer/VanillaSIR_Scenario0_Primer_200_log-normal.xlsx
+++ b/results/primer/VanillaSIR_Scenario0_Primer_200_log-normal.xlsx
@@ -535,19 +535,19 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>0.3297361511079887</v>
+        <v>0.3300591674014615</v>
       </c>
       <c r="B2">
-        <v>0.3840431716962345</v>
+        <v>0.3839125079094902</v>
       </c>
       <c r="C2">
-        <v>0.2816635956640582</v>
+        <v>0.2823455332341271</v>
       </c>
       <c r="D2">
-        <v>0.3543855552770374</v>
+        <v>0.3552559731737231</v>
       </c>
       <c r="E2">
-        <v>0.303888003173824</v>
+        <v>0.303890232326717</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -565,64 +565,64 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>2.30815305775592</v>
+        <v>2.31041417181023</v>
       </c>
       <c r="L2">
-        <v>2.688302201873642</v>
+        <v>2.687387555366431</v>
       </c>
       <c r="M2">
-        <v>1.971645169648408</v>
+        <v>1.97641873263889</v>
       </c>
       <c r="N2">
-        <v>2.480698886939262</v>
+        <v>2.486791812216062</v>
       </c>
       <c r="O2">
-        <v>2.127216022216768</v>
+        <v>2.127231626287019</v>
       </c>
       <c r="P2">
-        <v>63.8335</v>
+        <v>63.74049</v>
       </c>
       <c r="Q2">
-        <v>81.94879204453048</v>
+        <v>81.81617043041194</v>
       </c>
       <c r="R2">
-        <v>50.24985091646274</v>
+        <v>50.1719375637459</v>
       </c>
       <c r="S2">
-        <v>71.41072686515245</v>
+        <v>71.40129667373306</v>
       </c>
       <c r="T2">
-        <v>55.62738848104395</v>
+        <v>55.49574629892218</v>
       </c>
       <c r="U2">
-        <v>0.2034034584282747</v>
+        <v>0.2037483695295493</v>
       </c>
       <c r="V2">
-        <v>0.2593225935753523</v>
+        <v>0.2596457149369613</v>
       </c>
       <c r="W2">
-        <v>0.1489063170791736</v>
+        <v>0.1490927975476136</v>
       </c>
       <c r="X2">
-        <v>0.2319486440133722</v>
+        <v>0.2325214558897186</v>
       </c>
       <c r="Y2">
-        <v>0.1736828347884164</v>
+        <v>0.1737636220520615</v>
       </c>
       <c r="Z2">
-        <v>0.8597832005864974</v>
+        <v>0.8601408267920645</v>
       </c>
       <c r="AA2">
-        <v>0.9154620267283978</v>
+        <v>0.915683397578995</v>
       </c>
       <c r="AB2">
-        <v>0.7909911800891088</v>
+        <v>0.7913070969371712</v>
       </c>
       <c r="AC2">
-        <v>0.8899844825112641</v>
+        <v>0.8905303427093396</v>
       </c>
       <c r="AD2">
-        <v>0.8248979523129329</v>
+        <v>0.8250384108230511</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -642,171 +642,171 @@
         <v>0.33</v>
       </c>
       <c r="F3">
-        <v>6.999074712978497</v>
+        <v>7.000697589884063</v>
       </c>
       <c r="G3">
-        <v>8.863543884930754</v>
+        <v>8.841508045435681</v>
       </c>
       <c r="H3">
-        <v>5.443239890003613</v>
+        <v>5.460560086407628</v>
       </c>
       <c r="I3">
-        <v>7.834944424034637</v>
+        <v>7.836787123025934</v>
       </c>
       <c r="J3">
-        <v>6.126520061327539</v>
+        <v>6.132332668897923</v>
       </c>
       <c r="K3">
-        <v>2.309694655282904</v>
+        <v>2.310230204661741</v>
       </c>
       <c r="L3">
-        <v>2.924969482027149</v>
+        <v>2.917697654993776</v>
       </c>
       <c r="M3">
-        <v>1.796269163701192</v>
+        <v>1.801984828514517</v>
       </c>
       <c r="N3">
-        <v>2.58553165993143</v>
+        <v>2.586139750598559</v>
       </c>
       <c r="O3">
-        <v>2.021751620238088</v>
+        <v>2.023669780736315</v>
       </c>
       <c r="P3">
-        <v>63.7478</v>
+        <v>63.7481</v>
       </c>
       <c r="Q3">
-        <v>74.91578881000441</v>
+        <v>75.27319761923111</v>
       </c>
       <c r="R3">
-        <v>55.98116167262773</v>
+        <v>56.19496914266413</v>
       </c>
       <c r="S3">
-        <v>68.74312109378752</v>
+        <v>68.56141804928605</v>
       </c>
       <c r="T3">
-        <v>59.26173474148204</v>
+        <v>59.10072488884368</v>
       </c>
       <c r="U3">
-        <v>0.202364107164467</v>
+        <v>0.2024537036706112</v>
       </c>
       <c r="V3">
-        <v>0.2899459938670984</v>
+        <v>0.2897536462010484</v>
       </c>
       <c r="W3">
-        <v>0.1184590648004126</v>
+        <v>0.1181684385509804</v>
       </c>
       <c r="X3">
-        <v>0.2477743186579056</v>
+        <v>0.247716318828288</v>
       </c>
       <c r="Y3">
-        <v>0.1554920843603945</v>
+        <v>0.1555729590431187</v>
       </c>
       <c r="Z3">
-        <v>0.8539451445410772</v>
+        <v>0.8540245377345156</v>
       </c>
       <c r="AA3">
-        <v>0.9381827804837902</v>
+        <v>0.9382565481519122</v>
       </c>
       <c r="AB3">
-        <v>0.7372516456897703</v>
+        <v>0.7363604334518572</v>
       </c>
       <c r="AC3">
-        <v>0.9016860461536178</v>
+        <v>0.9015636713450195</v>
       </c>
       <c r="AD3">
-        <v>0.7960813139377101</v>
+        <v>0.7961231546180072</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.3298916397546043</v>
+        <v>0.3299986630848838</v>
       </c>
       <c r="B4">
-        <v>0.3848017845338876</v>
+        <v>0.383608226101057</v>
       </c>
       <c r="C4">
-        <v>0.2821581829372162</v>
+        <v>0.2823486256541262</v>
       </c>
       <c r="D4">
-        <v>0.3546239551811849</v>
+        <v>0.3549667219716015</v>
       </c>
       <c r="E4">
-        <v>0.3039224478289962</v>
+        <v>0.3040319195507326</v>
       </c>
       <c r="F4">
-        <v>6.998497577307705</v>
+        <v>6.998388618331686</v>
       </c>
       <c r="G4">
-        <v>8.861440472798632</v>
+        <v>8.839401018561805</v>
       </c>
       <c r="H4">
-        <v>5.441747136386009</v>
+        <v>5.457049546651731</v>
       </c>
       <c r="I4">
-        <v>7.818319056375014</v>
+        <v>7.832553835399432</v>
       </c>
       <c r="J4">
-        <v>6.128375861256477</v>
+        <v>6.127876753459891</v>
       </c>
       <c r="K4">
-        <v>2.308618544027976</v>
+        <v>2.309357765733866</v>
       </c>
       <c r="L4">
-        <v>3.043647790255081</v>
+        <v>3.040405733971514</v>
       </c>
       <c r="M4">
-        <v>1.716489355198035</v>
+        <v>1.720088389927188</v>
       </c>
       <c r="N4">
-        <v>2.629639876552048</v>
+        <v>2.631383316563059</v>
       </c>
       <c r="O4">
-        <v>1.972309090586858</v>
+        <v>1.971117758847862</v>
       </c>
       <c r="P4">
-        <v>64.8749</v>
+        <v>64.83936</v>
       </c>
       <c r="Q4">
-        <v>90.35391775868271</v>
+        <v>89.48542648455536</v>
       </c>
       <c r="R4">
-        <v>49.10538074601645</v>
+        <v>49.17162874104899</v>
       </c>
       <c r="S4">
-        <v>74.05627810568539</v>
+        <v>73.94453148713578</v>
       </c>
       <c r="T4">
-        <v>55.42984082238976</v>
+        <v>55.46041706019108</v>
       </c>
       <c r="U4">
-        <v>0.2013638615142805</v>
+        <v>0.2015009989411887</v>
       </c>
       <c r="V4">
-        <v>0.3054651299659514</v>
+        <v>0.3043881193105049</v>
       </c>
       <c r="W4">
-        <v>0.1023572581456122</v>
+        <v>0.1028152436196753</v>
       </c>
       <c r="X4">
-        <v>0.2543913122277854</v>
+        <v>0.254685267863865</v>
       </c>
       <c r="Y4">
-        <v>0.1467475872505069</v>
+        <v>0.1465640520801581</v>
       </c>
       <c r="Z4">
-        <v>0.849624436188111</v>
+        <v>0.8497637062567935</v>
       </c>
       <c r="AA4">
-        <v>0.9487745789477495</v>
+        <v>0.9483438917022717</v>
       </c>
       <c r="AB4">
-        <v>0.7036986375691462</v>
+        <v>0.7036543722556876</v>
       </c>
       <c r="AC4">
-        <v>0.9054316703184671</v>
+        <v>0.9057098087361612</v>
       </c>
       <c r="AD4">
-        <v>0.7797867863698631</v>
+        <v>0.7796386398636745</v>
       </c>
     </row>
   </sheetData>

--- a/results/primer/VanillaSIR_Scenario0_Primer_200_log-normal.xlsx
+++ b/results/primer/VanillaSIR_Scenario0_Primer_200_log-normal.xlsx
@@ -535,19 +535,19 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>0.3300591674014615</v>
+        <v>0.3299202878440668</v>
       </c>
       <c r="B2">
-        <v>0.3839125079094902</v>
+        <v>0.3829666873843514</v>
       </c>
       <c r="C2">
-        <v>0.2823455332341271</v>
+        <v>0.2822597518622293</v>
       </c>
       <c r="D2">
-        <v>0.3552559731737231</v>
+        <v>0.3548941068322122</v>
       </c>
       <c r="E2">
-        <v>0.303890232326717</v>
+        <v>0.3038515979286224</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -565,64 +565,64 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>2.31041417181023</v>
+        <v>2.309442014908468</v>
       </c>
       <c r="L2">
-        <v>2.687387555366431</v>
+        <v>2.68076681169046</v>
       </c>
       <c r="M2">
-        <v>1.97641873263889</v>
+        <v>1.975818263035606</v>
       </c>
       <c r="N2">
-        <v>2.486791812216062</v>
+        <v>2.484258747825486</v>
       </c>
       <c r="O2">
-        <v>2.127231626287019</v>
+        <v>2.126961185500357</v>
       </c>
       <c r="P2">
-        <v>63.74049</v>
+        <v>63.77354</v>
       </c>
       <c r="Q2">
-        <v>81.81617043041194</v>
+        <v>81.75593124946359</v>
       </c>
       <c r="R2">
-        <v>50.1719375637459</v>
+        <v>50.26230442364822</v>
       </c>
       <c r="S2">
-        <v>71.40129667373306</v>
+        <v>71.46314943887475</v>
       </c>
       <c r="T2">
-        <v>55.49574629892218</v>
+        <v>55.56684899504945</v>
       </c>
       <c r="U2">
-        <v>0.2037483695295493</v>
+        <v>0.2036050555118729</v>
       </c>
       <c r="V2">
-        <v>0.2596457149369613</v>
+        <v>0.2591105867630624</v>
       </c>
       <c r="W2">
-        <v>0.1490927975476136</v>
+        <v>0.1490971507121034</v>
       </c>
       <c r="X2">
-        <v>0.2325214558897186</v>
+        <v>0.232234898062347</v>
       </c>
       <c r="Y2">
-        <v>0.1737636220520615</v>
+        <v>0.1737161120343146</v>
       </c>
       <c r="Z2">
-        <v>0.8601408267920645</v>
+        <v>0.8600071441520277</v>
       </c>
       <c r="AA2">
-        <v>0.915683397578995</v>
+        <v>0.915263696753041</v>
       </c>
       <c r="AB2">
-        <v>0.7913070969371712</v>
+        <v>0.7913138442740167</v>
       </c>
       <c r="AC2">
-        <v>0.8905303427093396</v>
+        <v>0.8902884558500727</v>
       </c>
       <c r="AD2">
-        <v>0.8250384108230511</v>
+        <v>0.8249862327812542</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -642,171 +642,171 @@
         <v>0.33</v>
       </c>
       <c r="F3">
-        <v>7.000697589884063</v>
+        <v>6.997067711031733</v>
       </c>
       <c r="G3">
-        <v>8.841508045435681</v>
+        <v>8.828010335236128</v>
       </c>
       <c r="H3">
-        <v>5.460560086407628</v>
+        <v>5.451119114364335</v>
       </c>
       <c r="I3">
-        <v>7.836787123025934</v>
+        <v>7.833502622234264</v>
       </c>
       <c r="J3">
-        <v>6.132332668897923</v>
+        <v>6.123672032234734</v>
       </c>
       <c r="K3">
-        <v>2.310230204661741</v>
+        <v>2.309032344640472</v>
       </c>
       <c r="L3">
-        <v>2.917697654993776</v>
+        <v>2.913243410627922</v>
       </c>
       <c r="M3">
-        <v>1.801984828514517</v>
+        <v>1.79886930774023</v>
       </c>
       <c r="N3">
-        <v>2.586139750598559</v>
+        <v>2.585055865337307</v>
       </c>
       <c r="O3">
-        <v>2.023669780736315</v>
+        <v>2.020811770637462</v>
       </c>
       <c r="P3">
-        <v>63.7481</v>
+        <v>63.76815</v>
       </c>
       <c r="Q3">
-        <v>75.27319761923111</v>
+        <v>75.13540296383746</v>
       </c>
       <c r="R3">
-        <v>56.19496914266413</v>
+        <v>55.97465215521801</v>
       </c>
       <c r="S3">
-        <v>68.56141804928605</v>
+        <v>68.77352711372066</v>
       </c>
       <c r="T3">
-        <v>59.10072488884368</v>
+        <v>59.30487705283106</v>
       </c>
       <c r="U3">
-        <v>0.2024537036706112</v>
+        <v>0.2022668229566483</v>
       </c>
       <c r="V3">
-        <v>0.2897536462010484</v>
+        <v>0.289500480703474</v>
       </c>
       <c r="W3">
-        <v>0.1181684385509804</v>
+        <v>0.1176270291088261</v>
       </c>
       <c r="X3">
-        <v>0.247716318828288</v>
+        <v>0.2473911905271854</v>
       </c>
       <c r="Y3">
-        <v>0.1555729590431187</v>
+        <v>0.1554198925436388</v>
       </c>
       <c r="Z3">
-        <v>0.8540245377345156</v>
+        <v>0.8537973356140834</v>
       </c>
       <c r="AA3">
-        <v>0.9382565481519122</v>
+        <v>0.9381132992451295</v>
       </c>
       <c r="AB3">
-        <v>0.7363604334518572</v>
+        <v>0.7353486350461407</v>
       </c>
       <c r="AC3">
-        <v>0.9015636713450195</v>
+        <v>0.9012536280553676</v>
       </c>
       <c r="AD3">
-        <v>0.7961231546180072</v>
+        <v>0.7958025402878478</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.3299986630848838</v>
+        <v>0.3299709879228907</v>
       </c>
       <c r="B4">
-        <v>0.383608226101057</v>
+        <v>0.3835433800069381</v>
       </c>
       <c r="C4">
-        <v>0.2823486256541262</v>
+        <v>0.282490288356253</v>
       </c>
       <c r="D4">
-        <v>0.3549667219716015</v>
+        <v>0.3549708526407032</v>
       </c>
       <c r="E4">
-        <v>0.3040319195507326</v>
+        <v>0.3039131997519875</v>
       </c>
       <c r="F4">
-        <v>6.998388618331686</v>
+        <v>7.002209084319542</v>
       </c>
       <c r="G4">
-        <v>8.839401018561805</v>
+        <v>8.842692131684961</v>
       </c>
       <c r="H4">
-        <v>5.457049546651731</v>
+        <v>5.451334083599908</v>
       </c>
       <c r="I4">
-        <v>7.832553835399432</v>
+        <v>7.833899822736148</v>
       </c>
       <c r="J4">
-        <v>6.127876753459891</v>
+        <v>6.132871319663241</v>
       </c>
       <c r="K4">
-        <v>2.309357765733866</v>
+        <v>2.310539526478212</v>
       </c>
       <c r="L4">
-        <v>3.040405733971514</v>
+        <v>3.041834367661179</v>
       </c>
       <c r="M4">
-        <v>1.720088389927188</v>
+        <v>1.719625473759511</v>
       </c>
       <c r="N4">
-        <v>2.631383316563059</v>
+        <v>2.635556163608213</v>
       </c>
       <c r="O4">
-        <v>1.971117758847862</v>
+        <v>1.971112809645559</v>
       </c>
       <c r="P4">
-        <v>64.83936</v>
+        <v>64.82935000000001</v>
       </c>
       <c r="Q4">
-        <v>89.48542648455536</v>
+        <v>89.97420461149105</v>
       </c>
       <c r="R4">
-        <v>49.17162874104899</v>
+        <v>49.15547311527516</v>
       </c>
       <c r="S4">
-        <v>73.94453148713578</v>
+        <v>74.05936458671786</v>
       </c>
       <c r="T4">
-        <v>55.46041706019108</v>
+        <v>55.43313974299544</v>
       </c>
       <c r="U4">
-        <v>0.2015009989411887</v>
+        <v>0.2016719693897677</v>
       </c>
       <c r="V4">
-        <v>0.3043881193105049</v>
+        <v>0.30442753138228</v>
       </c>
       <c r="W4">
-        <v>0.1028152436196753</v>
+        <v>0.1029117569653542</v>
       </c>
       <c r="X4">
-        <v>0.254685267863865</v>
+        <v>0.255087482693251</v>
       </c>
       <c r="Y4">
-        <v>0.1465640520801581</v>
+        <v>0.1464663332311515</v>
       </c>
       <c r="Z4">
-        <v>0.8497637062567935</v>
+        <v>0.8499120896328726</v>
       </c>
       <c r="AA4">
-        <v>0.9483438917022717</v>
+        <v>0.9483213126288657</v>
       </c>
       <c r="AB4">
-        <v>0.7036543722556876</v>
+        <v>0.7037095113950714</v>
       </c>
       <c r="AC4">
-        <v>0.9057098087361612</v>
+        <v>0.9060581172434008</v>
       </c>
       <c r="AD4">
-        <v>0.7796386398636745</v>
+        <v>0.7795361184671367</v>
       </c>
     </row>
   </sheetData>

--- a/results/primer/VanillaSIR_Scenario0_Primer_200_log-normal.xlsx
+++ b/results/primer/VanillaSIR_Scenario0_Primer_200_log-normal.xlsx
@@ -533,280 +533,96 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2">
-        <v>0.3299202878440668</v>
-      </c>
-      <c r="B2">
-        <v>0.3829666873843514</v>
-      </c>
-      <c r="C2">
-        <v>0.2822597518622293</v>
-      </c>
-      <c r="D2">
-        <v>0.3548941068322122</v>
-      </c>
-      <c r="E2">
-        <v>0.3038515979286224</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>2.309442014908468</v>
-      </c>
-      <c r="L2">
-        <v>2.68076681169046</v>
-      </c>
-      <c r="M2">
-        <v>1.975818263035606</v>
-      </c>
-      <c r="N2">
-        <v>2.484258747825486</v>
-      </c>
-      <c r="O2">
-        <v>2.126961185500357</v>
-      </c>
-      <c r="P2">
-        <v>63.77354</v>
-      </c>
-      <c r="Q2">
-        <v>81.75593124946359</v>
-      </c>
-      <c r="R2">
-        <v>50.26230442364822</v>
-      </c>
-      <c r="S2">
-        <v>71.46314943887475</v>
-      </c>
-      <c r="T2">
-        <v>55.56684899504945</v>
-      </c>
-      <c r="U2">
-        <v>0.2036050555118729</v>
-      </c>
-      <c r="V2">
-        <v>0.2591105867630624</v>
-      </c>
-      <c r="W2">
-        <v>0.1490971507121034</v>
-      </c>
-      <c r="X2">
-        <v>0.232234898062347</v>
-      </c>
-      <c r="Y2">
-        <v>0.1737161120343146</v>
-      </c>
-      <c r="Z2">
-        <v>0.8600071441520277</v>
-      </c>
-      <c r="AA2">
-        <v>0.915263696753041</v>
-      </c>
-      <c r="AB2">
-        <v>0.7913138442740167</v>
-      </c>
-      <c r="AC2">
-        <v>0.8902884558500727</v>
-      </c>
-      <c r="AD2">
-        <v>0.8249862327812542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3">
-        <v>0.33</v>
-      </c>
-      <c r="B3">
-        <v>0.33</v>
-      </c>
-      <c r="C3">
-        <v>0.33</v>
-      </c>
-      <c r="D3">
-        <v>0.33</v>
-      </c>
-      <c r="E3">
-        <v>0.33</v>
-      </c>
-      <c r="F3">
-        <v>6.997067711031733</v>
-      </c>
-      <c r="G3">
-        <v>8.828010335236128</v>
-      </c>
-      <c r="H3">
-        <v>5.451119114364335</v>
-      </c>
-      <c r="I3">
-        <v>7.833502622234264</v>
-      </c>
-      <c r="J3">
-        <v>6.123672032234734</v>
-      </c>
-      <c r="K3">
-        <v>2.309032344640472</v>
-      </c>
-      <c r="L3">
-        <v>2.913243410627922</v>
-      </c>
-      <c r="M3">
-        <v>1.79886930774023</v>
-      </c>
-      <c r="N3">
-        <v>2.585055865337307</v>
-      </c>
-      <c r="O3">
-        <v>2.020811770637462</v>
-      </c>
-      <c r="P3">
-        <v>63.76815</v>
-      </c>
-      <c r="Q3">
-        <v>75.13540296383746</v>
-      </c>
-      <c r="R3">
-        <v>55.97465215521801</v>
-      </c>
-      <c r="S3">
-        <v>68.77352711372066</v>
-      </c>
-      <c r="T3">
-        <v>59.30487705283106</v>
-      </c>
-      <c r="U3">
-        <v>0.2022668229566483</v>
-      </c>
-      <c r="V3">
-        <v>0.289500480703474</v>
-      </c>
-      <c r="W3">
-        <v>0.1176270291088261</v>
-      </c>
-      <c r="X3">
-        <v>0.2473911905271854</v>
-      </c>
-      <c r="Y3">
-        <v>0.1554198925436388</v>
-      </c>
-      <c r="Z3">
-        <v>0.8537973356140834</v>
-      </c>
-      <c r="AA3">
-        <v>0.9381132992451295</v>
-      </c>
-      <c r="AB3">
-        <v>0.7353486350461407</v>
-      </c>
-      <c r="AC3">
-        <v>0.9012536280553676</v>
-      </c>
-      <c r="AD3">
-        <v>0.7958025402878478</v>
-      </c>
-    </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.3299709879228907</v>
+        <v>0.3300244940007122</v>
       </c>
       <c r="B4">
-        <v>0.3835433800069381</v>
+        <v>0.3838485487857842</v>
       </c>
       <c r="C4">
-        <v>0.282490288356253</v>
+        <v>0.2822192506826666</v>
       </c>
       <c r="D4">
-        <v>0.3549708526407032</v>
+        <v>0.3550861287923983</v>
       </c>
       <c r="E4">
-        <v>0.3039131997519875</v>
+        <v>0.3038530992410748</v>
       </c>
       <c r="F4">
-        <v>7.002209084319542</v>
+        <v>7.005503526645575</v>
       </c>
       <c r="G4">
-        <v>8.842692131684961</v>
+        <v>8.844686085799241</v>
       </c>
       <c r="H4">
-        <v>5.451334083599908</v>
+        <v>5.460550443937363</v>
       </c>
       <c r="I4">
-        <v>7.833899822736148</v>
+        <v>7.837731392018752</v>
       </c>
       <c r="J4">
-        <v>6.132871319663241</v>
+        <v>6.134036552789549</v>
       </c>
       <c r="K4">
-        <v>2.310539526478212</v>
+        <v>2.311961257118714</v>
       </c>
       <c r="L4">
-        <v>3.041834367661179</v>
+        <v>3.043027583720584</v>
       </c>
       <c r="M4">
-        <v>1.719625473759511</v>
+        <v>1.719550157828213</v>
       </c>
       <c r="N4">
-        <v>2.635556163608213</v>
+        <v>2.637593303429044</v>
       </c>
       <c r="O4">
-        <v>1.971112809645559</v>
+        <v>1.971455790202388</v>
       </c>
       <c r="P4">
-        <v>64.82935000000001</v>
+        <v>64.80086</v>
       </c>
       <c r="Q4">
-        <v>89.97420461149105</v>
+        <v>89.05095655480486</v>
       </c>
       <c r="R4">
-        <v>49.15547311527516</v>
+        <v>49.15225623469014</v>
       </c>
       <c r="S4">
-        <v>74.05936458671786</v>
+        <v>73.78825570098807</v>
       </c>
       <c r="T4">
-        <v>55.43313974299544</v>
+        <v>55.37240472349156</v>
       </c>
       <c r="U4">
-        <v>0.2016719693897677</v>
+        <v>0.2018860252958816</v>
       </c>
       <c r="V4">
-        <v>0.30442753138228</v>
+        <v>0.3044990987147581</v>
       </c>
       <c r="W4">
-        <v>0.1029117569653542</v>
+        <v>0.1032073414083403</v>
       </c>
       <c r="X4">
-        <v>0.255087482693251</v>
+        <v>0.2554299225463054</v>
       </c>
       <c r="Y4">
-        <v>0.1464663332311515</v>
+        <v>0.1465474375862897</v>
       </c>
       <c r="Z4">
-        <v>0.8499120896328726</v>
+        <v>0.8501520657512457</v>
       </c>
       <c r="AA4">
-        <v>0.9483213126288657</v>
+        <v>0.9482391719289134</v>
       </c>
       <c r="AB4">
-        <v>0.7037095113950714</v>
+        <v>0.7043493967683014</v>
       </c>
       <c r="AC4">
-        <v>0.9060581172434008</v>
+        <v>0.9063802131906971</v>
       </c>
       <c r="AD4">
-        <v>0.7795361184671367</v>
+        <v>0.7797294371403359</v>
       </c>
     </row>
   </sheetData>

--- a/results/primer/VanillaSIR_Scenario0_Primer_200_log-normal.xlsx
+++ b/results/primer/VanillaSIR_Scenario0_Primer_200_log-normal.xlsx
@@ -19,46 +19,46 @@
     <t>beta-mean</t>
   </si>
   <si>
+    <t>beta-Q99.85</t>
+  </si>
+  <si>
+    <t>beta-Q0.15</t>
+  </si>
+  <si>
     <t>beta-Q97.5</t>
   </si>
   <si>
     <t>beta-Q2.5</t>
   </si>
   <si>
-    <t>beta-Q83.5</t>
-  </si>
-  <si>
-    <t>beta-Q15.5</t>
-  </si>
-  <si>
     <t>gamma-inv-mean</t>
   </si>
   <si>
+    <t>gamma-inv-Q99.85</t>
+  </si>
+  <si>
+    <t>gamma-inv-Q0.15</t>
+  </si>
+  <si>
     <t>gamma-inv-Q97.5</t>
   </si>
   <si>
     <t>gamma-inv-Q2.5</t>
   </si>
   <si>
-    <t>gamma-inv-Q83.5</t>
-  </si>
-  <si>
-    <t>gamma-inv-Q15.5</t>
-  </si>
-  <si>
     <t>R_0-mean</t>
   </si>
   <si>
+    <t>R_0-Q99.85</t>
+  </si>
+  <si>
+    <t>R_0-Q0.15</t>
+  </si>
+  <si>
     <t>R_0-Q97.5</t>
   </si>
   <si>
     <t>R_0-Q2.5</t>
-  </si>
-  <si>
-    <t>R_0-Q83.5</t>
-  </si>
-  <si>
-    <t>R_0-Q15.5</t>
   </si>
   <si>
     <t>t_c-mean</t>
@@ -533,96 +533,280 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:30">
+      <c r="A2">
+        <v>0.3299189308024832</v>
+      </c>
+      <c r="B2">
+        <v>0.4142991204565963</v>
+      </c>
+      <c r="C2">
+        <v>0.2608375780669856</v>
+      </c>
+      <c r="D2">
+        <v>0.3835968581368405</v>
+      </c>
+      <c r="E2">
+        <v>0.2821067674663613</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>2.309432515617382</v>
+      </c>
+      <c r="L2">
+        <v>2.900093843196174</v>
+      </c>
+      <c r="M2">
+        <v>1.825863046468899</v>
+      </c>
+      <c r="N2">
+        <v>2.685178006957884</v>
+      </c>
+      <c r="O2">
+        <v>1.974747372264529</v>
+      </c>
+      <c r="P2">
+        <v>63.77727</v>
+      </c>
+      <c r="Q2">
+        <v>81.7379480324809</v>
+      </c>
+      <c r="R2">
+        <v>50.2519553950771</v>
+      </c>
+      <c r="S2">
+        <v>71.4644746938914</v>
+      </c>
+      <c r="T2">
+        <v>55.54959050021991</v>
+      </c>
+      <c r="U2">
+        <v>0.203602557490736</v>
+      </c>
+      <c r="V2">
+        <v>0.2592203782161206</v>
+      </c>
+      <c r="W2">
+        <v>0.1491684222018941</v>
+      </c>
+      <c r="X2">
+        <v>0.2322736249031554</v>
+      </c>
+      <c r="Y2">
+        <v>0.1737145431814007</v>
+      </c>
+      <c r="Z2">
+        <v>0.8600022800951511</v>
+      </c>
+      <c r="AA2">
+        <v>0.9153662089632195</v>
+      </c>
+      <c r="AB2">
+        <v>0.7914011878159217</v>
+      </c>
+      <c r="AC2">
+        <v>0.8903201227175143</v>
+      </c>
+      <c r="AD2">
+        <v>0.8249903846135129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3">
+        <v>0.33</v>
+      </c>
+      <c r="B3">
+        <v>0.33</v>
+      </c>
+      <c r="C3">
+        <v>0.33</v>
+      </c>
+      <c r="D3">
+        <v>0.33</v>
+      </c>
+      <c r="E3">
+        <v>0.33</v>
+      </c>
+      <c r="F3">
+        <v>6.998496896618169</v>
+      </c>
+      <c r="G3">
+        <v>9.981055981456437</v>
+      </c>
+      <c r="H3">
+        <v>4.814847106203835</v>
+      </c>
+      <c r="I3">
+        <v>8.845992848775781</v>
+      </c>
+      <c r="J3">
+        <v>5.457090572659055</v>
+      </c>
+      <c r="K3">
+        <v>2.309503975883996</v>
+      </c>
+      <c r="L3">
+        <v>3.293748473880625</v>
+      </c>
+      <c r="M3">
+        <v>1.588899545047266</v>
+      </c>
+      <c r="N3">
+        <v>2.919177640096008</v>
+      </c>
+      <c r="O3">
+        <v>1.800839888977488</v>
+      </c>
+      <c r="P3">
+        <v>63.75586</v>
+      </c>
+      <c r="Q3">
+        <v>75.0522762046316</v>
+      </c>
+      <c r="R3">
+        <v>55.97565886935696</v>
+      </c>
+      <c r="S3">
+        <v>68.74814448063037</v>
+      </c>
+      <c r="T3">
+        <v>59.29424089510473</v>
+      </c>
+      <c r="U3">
+        <v>0.2023458129102101</v>
+      </c>
+      <c r="V3">
+        <v>0.2895426709002386</v>
+      </c>
+      <c r="W3">
+        <v>0.1179978164919083</v>
+      </c>
+      <c r="X3">
+        <v>0.2474866713928451</v>
+      </c>
+      <c r="Y3">
+        <v>0.1555469481619827</v>
+      </c>
+      <c r="Z3">
+        <v>0.8539176698606272</v>
+      </c>
+      <c r="AA3">
+        <v>0.9380949263126771</v>
+      </c>
+      <c r="AB3">
+        <v>0.7361357320821345</v>
+      </c>
+      <c r="AC3">
+        <v>0.9013764423359274</v>
+      </c>
+      <c r="AD3">
+        <v>0.7960560486044825</v>
+      </c>
+    </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.3300244940007122</v>
+        <v>0.3301111106678915</v>
       </c>
       <c r="B4">
-        <v>0.3838485487857842</v>
+        <v>0.4154835156347327</v>
       </c>
       <c r="C4">
-        <v>0.2822192506826666</v>
+        <v>0.2617285109392951</v>
       </c>
       <c r="D4">
-        <v>0.3550861287923983</v>
+        <v>0.383495985423454</v>
       </c>
       <c r="E4">
-        <v>0.3038530992410748</v>
+        <v>0.2821290066059836</v>
       </c>
       <c r="F4">
-        <v>7.005503526645575</v>
+        <v>6.995490991034389</v>
       </c>
       <c r="G4">
-        <v>8.844686085799241</v>
+        <v>9.967990191588182</v>
       </c>
       <c r="H4">
-        <v>5.460550443937363</v>
+        <v>4.800660752901289</v>
       </c>
       <c r="I4">
-        <v>7.837731392018752</v>
+        <v>8.844593724009501</v>
       </c>
       <c r="J4">
-        <v>6.134036552789549</v>
+        <v>5.446174071833128</v>
       </c>
       <c r="K4">
-        <v>2.311961257118714</v>
+        <v>2.309368307651845</v>
       </c>
       <c r="L4">
-        <v>3.043027583720584</v>
+        <v>3.510617044115396</v>
       </c>
       <c r="M4">
-        <v>1.719550157828213</v>
+        <v>1.478259180980033</v>
       </c>
       <c r="N4">
-        <v>2.637593303429044</v>
+        <v>3.043839046480679</v>
       </c>
       <c r="O4">
-        <v>1.971455790202388</v>
+        <v>1.715752598755057</v>
       </c>
       <c r="P4">
-        <v>64.80086</v>
+        <v>64.84089</v>
       </c>
       <c r="Q4">
-        <v>89.05095655480486</v>
+        <v>88.74818192037992</v>
       </c>
       <c r="R4">
-        <v>49.15225623469014</v>
+        <v>49.1570393089725</v>
       </c>
       <c r="S4">
-        <v>73.78825570098807</v>
+        <v>73.65752533770001</v>
       </c>
       <c r="T4">
-        <v>55.37240472349156</v>
+        <v>55.40033591953872</v>
       </c>
       <c r="U4">
-        <v>0.2018860252958816</v>
+        <v>0.2014792289156065</v>
       </c>
       <c r="V4">
-        <v>0.3044990987147581</v>
+        <v>0.3046108972886047</v>
       </c>
       <c r="W4">
-        <v>0.1032073414083403</v>
+        <v>0.1023759329814471</v>
       </c>
       <c r="X4">
-        <v>0.2554299225463054</v>
+        <v>0.2549352180548114</v>
       </c>
       <c r="Y4">
-        <v>0.1465474375862897</v>
+        <v>0.1462260948832153</v>
       </c>
       <c r="Z4">
-        <v>0.8501520657512457</v>
+        <v>0.8496148442831675</v>
       </c>
       <c r="AA4">
-        <v>0.9482391719289134</v>
+        <v>0.9485767968797377</v>
       </c>
       <c r="AB4">
-        <v>0.7043493967683014</v>
+        <v>0.7023307705258893</v>
       </c>
       <c r="AC4">
-        <v>0.9063802131906971</v>
+        <v>0.9058444863783359</v>
       </c>
       <c r="AD4">
-        <v>0.7797294371403359</v>
+        <v>0.7790038314764545</v>
       </c>
     </row>
   </sheetData>
